--- a/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c12_hwp_tables.xlsx
+++ b/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c12_hwp_tables.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ipcc_data_tables_and_derivations/AFOLU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2483B47-BC6A-134A-AEFC-60FABE323610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24863B95-7A67-2043-B64C-DB748456C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="5760" windowWidth="25240" windowHeight="13940" xr2:uid="{CBDC0AA1-440A-7F43-85D3-F6E0E4C38802}"/>
+    <workbookView xWindow="13520" yWindow="8040" windowWidth="25240" windowHeight="13940" xr2:uid="{CBDC0AA1-440A-7F43-85D3-F6E0E4C38802}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet-carbon per ton" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,6 +32,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>TONNE WOOD PER m3</t>
+  </si>
+  <si>
+    <t>https://extension.psu.edu/calculating-the-green-weight-of-wood-species</t>
+  </si>
+  <si>
+    <t>TONNE CARBON PER M3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +395,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03A0BB-578E-2042-8FD7-F84D6BB6D7B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.249</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>